--- a/nmapVenv/store/validacion.xlsx
+++ b/nmapVenv/store/validacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t xml:space="preserve">TELNET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROTOCOLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRF</t>
   </si>
 </sst>
 </file>
@@ -43,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,6 +81,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,17 +218,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,6 +245,21 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/nmapVenv/store/validacion.xlsx
+++ b/nmapVenv/store/validacion.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">VRF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOOPBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLAN1</t>
   </si>
 </sst>
 </file>
@@ -218,13 +227,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H5:H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.61"/>
@@ -234,6 +243,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -260,6 +272,15 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
